--- a/controllers/files2Upload/upload_data_old1.xlsx
+++ b/controllers/files2Upload/upload_data_old1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Company</t>
   </si>
@@ -70,102 +70,6 @@
   </si>
   <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>Bliss Healthcare Ltd</t>
-  </si>
-  <si>
-    <t>nicholaskigen58@gmail.com</t>
-  </si>
-  <si>
-    <t>Pharmaceutical Products</t>
-  </si>
-  <si>
-    <t>Medical</t>
-  </si>
-  <si>
-    <t>MEDEXPO KENYA 2024 - VISITOR INQUIRY</t>
-  </si>
-  <si>
-    <t>Nicholas Kigen</t>
-  </si>
-  <si>
-    <t>Pharmaceutical Technologist</t>
-  </si>
-  <si>
-    <t>+254 710397262</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>Visitors-Inq</t>
-  </si>
-  <si>
-    <t>Om Jai Sai Surgical</t>
-  </si>
-  <si>
-    <t>vishalbishwas8657@gmail.com</t>
-  </si>
-  <si>
-    <t>Nishu Vishwas</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Asia</t>
-  </si>
-  <si>
-    <t>Xi'an Taibo Laser Beauty Company</t>
-  </si>
-  <si>
-    <t>amber@taibobeauty.com</t>
-  </si>
-  <si>
-    <t>https://www.taibobeauty.com/</t>
-  </si>
-  <si>
-    <t>Medical Equipment</t>
-  </si>
-  <si>
-    <t>https://dubaiderma.com/exhibitors/, 2024</t>
-  </si>
-  <si>
-    <t>Amber Guo</t>
-  </si>
-  <si>
-    <t>Sales Manager</t>
-  </si>
-  <si>
-    <t>+86 2986677223</t>
-  </si>
-  <si>
-    <t>+86 13991844620 (W)</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>F-E</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>shadow@taibobeauty.com</t>
-  </si>
-  <si>
-    <t>Shadow Li</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>86 13991844620 (W), 91 9923826906</t>
   </si>
 </sst>
 </file>
@@ -487,7 +391,7 @@
   <dimension ref="A1:Q172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,168 +454,16 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="1">
-        <v>45341.729675925926</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>27</v>
-      </c>
+      <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="1">
-        <v>45341.728518518517</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>44</v>
-      </c>
+      <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="1">
-        <v>45342.454583333332</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>44</v>
-      </c>
+      <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="1">
-        <v>45342.454583333332</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>44</v>
-      </c>
+      <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O6" s="1"/>

--- a/controllers/files2Upload/upload_data_old1.xlsx
+++ b/controllers/files2Upload/upload_data_old1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="465">
   <si>
     <t>Company</t>
   </si>
@@ -70,6 +70,1350 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>Bliss Healthcare Ltd</t>
+  </si>
+  <si>
+    <t>nicholaskigen58@gmail.com</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Products</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>MEDEXPO KENYA 2024 - VISITOR INQUIRY</t>
+  </si>
+  <si>
+    <t>Nicholas Kigen</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Technologist</t>
+  </si>
+  <si>
+    <t>+254 710397262</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Visitors-Inq</t>
+  </si>
+  <si>
+    <t>Om Jai Sai Surgical</t>
+  </si>
+  <si>
+    <t>vishalbishwas8657@gmail.com</t>
+  </si>
+  <si>
+    <t>Nishu Vishwas</t>
+  </si>
+  <si>
+    <t>+91 8448472567</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Bioquest Kenya Ltd</t>
+  </si>
+  <si>
+    <t>nathankipkurui2@gmail.com</t>
+  </si>
+  <si>
+    <t>https://bioquestkenya.com/</t>
+  </si>
+  <si>
+    <t>Nathan Korir</t>
+  </si>
+  <si>
+    <t>+254 787513877</t>
+  </si>
+  <si>
+    <t>charlesspencergichohi@gmail.com</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Care</t>
+  </si>
+  <si>
+    <t>Charles Spencer</t>
+  </si>
+  <si>
+    <t>Pharmacist</t>
+  </si>
+  <si>
+    <t>+254 713069814</t>
+  </si>
+  <si>
+    <t>Dewinter Optical, Inc</t>
+  </si>
+  <si>
+    <t>rajiv@dewinterindia.com</t>
+  </si>
+  <si>
+    <t>https://www.dewinterindia.com/</t>
+  </si>
+  <si>
+    <t>Digital Microscope Camera</t>
+  </si>
+  <si>
+    <t>https://www.medicalfair-india.com/exhibitor-list, 2023</t>
+  </si>
+  <si>
+    <t>Rajiv Luthra</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>+91 011 2588 8332</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Dong- A- Chammed</t>
+  </si>
+  <si>
+    <t>jun.choi@donga.co.kr</t>
+  </si>
+  <si>
+    <t>http://www.donga-chammed.co.kr/</t>
+  </si>
+  <si>
+    <t>ENT Equipment And Endoscopic Visual System</t>
+  </si>
+  <si>
+    <t>Jun Choi</t>
+  </si>
+  <si>
+    <t>International Sales Director</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>F-E</t>
+  </si>
+  <si>
+    <t>kangjh@donga.co.kr</t>
+  </si>
+  <si>
+    <t>Joohee Kang</t>
+  </si>
+  <si>
+    <t>Global Sales Development Manager</t>
+  </si>
+  <si>
+    <t>sunguk@donga.co.kr</t>
+  </si>
+  <si>
+    <t>Sunguk Hur</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>giehong@donga.co.kr</t>
+  </si>
+  <si>
+    <t>Giehong Yim</t>
+  </si>
+  <si>
+    <t>Business Director</t>
+  </si>
+  <si>
+    <t>Divine Meditech Pvt Ltd</t>
+  </si>
+  <si>
+    <t>marketing@divinemeditech.in</t>
+  </si>
+  <si>
+    <t>https://divinemeditech.in/</t>
+  </si>
+  <si>
+    <t>Laproscopy,Urology,Gynecology,Ent,Arthroscopy</t>
+  </si>
+  <si>
+    <t>Rajiv Sharma</t>
+  </si>
+  <si>
+    <t>Managing Director</t>
+  </si>
+  <si>
+    <t>+91 120 4711147,+91 1975257232</t>
+  </si>
+  <si>
+    <t>Dongguan Silent Industry Co.,ltd</t>
+  </si>
+  <si>
+    <t>fairy@silentgearmotor.com</t>
+  </si>
+  <si>
+    <t>http://en.gdmotor.cn/</t>
+  </si>
+  <si>
+    <t>Medical Instruments</t>
+  </si>
+  <si>
+    <t>+86 13532700435</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Suzhou Acmed Import &amp; Export Co., Ltd.</t>
+  </si>
+  <si>
+    <t>marketing@acmed.com.cn</t>
+  </si>
+  <si>
+    <t>http://www.acmed.com.cn/</t>
+  </si>
+  <si>
+    <t>Medical Disposable Device</t>
+  </si>
+  <si>
+    <t>https://www.medica-tradefair.com/en/Exhibitors_Products/Exhibitor_index_A-Z, 2023</t>
+  </si>
+  <si>
+    <t>Wenzhao He</t>
+  </si>
+  <si>
+    <t>General Manager</t>
+  </si>
+  <si>
+    <t>+86 512 6818 1258</t>
+  </si>
+  <si>
+    <t>Sutter Medizintechnik GmbH</t>
+  </si>
+  <si>
+    <t>stefan.tischler@sutter-pacific.com</t>
+  </si>
+  <si>
+    <t>http://www.sutter-med.de</t>
+  </si>
+  <si>
+    <t>Radiofrequency Generators</t>
+  </si>
+  <si>
+    <t>Stefan Tischler</t>
+  </si>
+  <si>
+    <t>+49 761 51551-0</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Suzhou Aokeray Polymer Materials Co., Lt</t>
+  </si>
+  <si>
+    <t>sales@medicalptfe.com</t>
+  </si>
+  <si>
+    <t>https://medicalptfe.com/</t>
+  </si>
+  <si>
+    <t>Tubings And Tubing Equipment</t>
+  </si>
+  <si>
+    <t>Shengwei Wang</t>
+  </si>
+  <si>
+    <t>Global Business Devlopment Manager</t>
+  </si>
+  <si>
+    <t>+86 512 18662528265, +86 18662528265, +86 18662528265</t>
+  </si>
+  <si>
+    <t>info@medicalptfe.com</t>
+  </si>
+  <si>
+    <t>Wang Wei</t>
+  </si>
+  <si>
+    <t>Sales Manager</t>
+  </si>
+  <si>
+    <t>Suzhou Caring Medical Co.,Ltd</t>
+  </si>
+  <si>
+    <t>sales@caringmed.com</t>
+  </si>
+  <si>
+    <t>http://www.caringmed.com/</t>
+  </si>
+  <si>
+    <t>Instruments For The Minimal-Invasive Surgery (Mis)</t>
+  </si>
+  <si>
+    <t>+86 512 66806106</t>
+  </si>
+  <si>
+    <t>Esco Medical</t>
+  </si>
+  <si>
+    <t>sales07@escomedical.com.cn</t>
+  </si>
+  <si>
+    <t>https://www.escomedical.com.cn</t>
+  </si>
+  <si>
+    <t>Dental Equipment</t>
+  </si>
+  <si>
+    <t>Dayna Cao</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>+86 (512) 69590381</t>
+  </si>
+  <si>
+    <t>simone.martin@sutter-med.de</t>
+  </si>
+  <si>
+    <t>Simone Martin</t>
+  </si>
+  <si>
+    <t>Marketing Manager</t>
+  </si>
+  <si>
+    <t>GenQore - UAE</t>
+  </si>
+  <si>
+    <t>otima_bhanot@yahoo.com</t>
+  </si>
+  <si>
+    <t>https://www.genqore.com/</t>
+  </si>
+  <si>
+    <t>Therapeutic, Pharmaceutical Products</t>
+  </si>
+  <si>
+    <t>https://duphat.ae/duphat-exhibitors-2023/</t>
+  </si>
+  <si>
+    <t>Otima Bhanot</t>
+  </si>
+  <si>
+    <t>Co-Founder &amp; CEO</t>
+  </si>
+  <si>
+    <t>+971 4 576 6511 / +971 4 576 6497</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Gulf</t>
+  </si>
+  <si>
+    <t>kunjan@genqore.com</t>
+  </si>
+  <si>
+    <t>Kunjan Singh</t>
+  </si>
+  <si>
+    <t>Gaelan Medical Trade LLC</t>
+  </si>
+  <si>
+    <t>binovjohn@ymail.com</t>
+  </si>
+  <si>
+    <t>https://gaelanmedical.com/</t>
+  </si>
+  <si>
+    <t>Medical Consumables &amp; Equipments</t>
+  </si>
+  <si>
+    <t>Bino V John</t>
+  </si>
+  <si>
+    <t>+971 4 881 6244</t>
+  </si>
+  <si>
+    <t>Global One Healthcare Holding LLC</t>
+  </si>
+  <si>
+    <t>rana.hossam@yasholding.ae</t>
+  </si>
+  <si>
+    <t>https://yasholding.ae/</t>
+  </si>
+  <si>
+    <t>Biopharma and IV solutions</t>
+  </si>
+  <si>
+    <t>Rana Hossam</t>
+  </si>
+  <si>
+    <t>+971 2 614 9000</t>
+  </si>
+  <si>
+    <t>GSK</t>
+  </si>
+  <si>
+    <t>luke.v.miels@gsk.com</t>
+  </si>
+  <si>
+    <t>https://www.gsk.com/</t>
+  </si>
+  <si>
+    <t>Vaccines, Specialty Medicines</t>
+  </si>
+  <si>
+    <t>Luke Miels</t>
+  </si>
+  <si>
+    <t>Chief Commercial Officer</t>
+  </si>
+  <si>
+    <t>+44 20 8047 5000</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>eric.x.king@gsk.com</t>
+  </si>
+  <si>
+    <t>Eric King</t>
+  </si>
+  <si>
+    <t>Vice President and General Manager</t>
+  </si>
+  <si>
+    <t>Galaxy Nutraceuticals (Pvt) Ltd</t>
+  </si>
+  <si>
+    <t>mkt.galaxypharma@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.galaxypharma.com/</t>
+  </si>
+  <si>
+    <t>Surgical, Orthopedic</t>
+  </si>
+  <si>
+    <t>Yasir Shaikh</t>
+  </si>
+  <si>
+    <t>+92 21 35148141</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>yasirshaikh@galaxypharma.com</t>
+  </si>
+  <si>
+    <t>abu.ryyan@ymail.com</t>
+  </si>
+  <si>
+    <t>Shahid Shaikh</t>
+  </si>
+  <si>
+    <t>Galderma Middle East FZ-LLC</t>
+  </si>
+  <si>
+    <t>alaa.antoine@galderma.com</t>
+  </si>
+  <si>
+    <t>https://www.galderma.com/</t>
+  </si>
+  <si>
+    <t>Prescription Drugs and Aesthetic Solutions</t>
+  </si>
+  <si>
+    <t>Alaa Antoine</t>
+  </si>
+  <si>
+    <t>Head of Marketing</t>
+  </si>
+  <si>
+    <t>+971 4 2755300</t>
+  </si>
+  <si>
+    <t>ban.moalla@galderma.com</t>
+  </si>
+  <si>
+    <t>Ban Moalla</t>
+  </si>
+  <si>
+    <t>Trade Marketing Manager</t>
+  </si>
+  <si>
+    <t>info@galderma.com</t>
+  </si>
+  <si>
+    <t>Globalpharma</t>
+  </si>
+  <si>
+    <t>balbarahmeh@globalpharma.ae</t>
+  </si>
+  <si>
+    <t>https://www.globalpharma.ae/</t>
+  </si>
+  <si>
+    <t>Medicines, Vitamins</t>
+  </si>
+  <si>
+    <t>Basem AL-Barahmeh</t>
+  </si>
+  <si>
+    <t>+971 48090900</t>
+  </si>
+  <si>
+    <t>GMP Technical Solutions Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>piyush.bhatia@gmptech.net</t>
+  </si>
+  <si>
+    <t>https://www.gmptech.net/</t>
+  </si>
+  <si>
+    <t>Cleanroom Equipment and Fire Rated Doors</t>
+  </si>
+  <si>
+    <t>Piyush Bhatia</t>
+  </si>
+  <si>
+    <t>Sales &amp; Marketing Manager</t>
+  </si>
+  <si>
+    <t>+91 022-49716529</t>
+  </si>
+  <si>
+    <t>aziz@gmptech.net</t>
+  </si>
+  <si>
+    <t>Aziz Wagh</t>
+  </si>
+  <si>
+    <t>Vice President</t>
+  </si>
+  <si>
+    <t>Green Pharma Stores LLC</t>
+  </si>
+  <si>
+    <t>amer@greenpharma.ae</t>
+  </si>
+  <si>
+    <t>https://greenpharma.ae/</t>
+  </si>
+  <si>
+    <t>Dermatology &amp; Skin Care</t>
+  </si>
+  <si>
+    <t>Amer Abu Sheikha</t>
+  </si>
+  <si>
+    <t>+971 6 5353733</t>
+  </si>
+  <si>
+    <t>Gilead Sciences</t>
+  </si>
+  <si>
+    <t>mohamed.saleh@gilead.com</t>
+  </si>
+  <si>
+    <t>https://www.gilead.com/</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>Mohamed Saleh</t>
+  </si>
+  <si>
+    <t>Associate Director</t>
+  </si>
+  <si>
+    <t>+971 4 556 4300</t>
+  </si>
+  <si>
+    <t>rayan.rayan@gilead.com</t>
+  </si>
+  <si>
+    <t>Rayan Rayan</t>
+  </si>
+  <si>
+    <t>Director, Global Marketing</t>
+  </si>
+  <si>
+    <t>Glenmark Pharmaceuticals Fze</t>
+  </si>
+  <si>
+    <t>csaba.kantor@glenmarkpharma.com</t>
+  </si>
+  <si>
+    <t>https://glenmarkpharma.com/</t>
+  </si>
+  <si>
+    <t>Medicines</t>
+  </si>
+  <si>
+    <t>Csaba Kantor</t>
+  </si>
+  <si>
+    <t>Senior Vice President</t>
+  </si>
+  <si>
+    <t>+971 4-8857377</t>
+  </si>
+  <si>
+    <t>natia@glenmarkpharma.com</t>
+  </si>
+  <si>
+    <t>Nael Atia</t>
+  </si>
+  <si>
+    <t>rebekah.k.turner@gsk.com</t>
+  </si>
+  <si>
+    <t>Rebekah Turner</t>
+  </si>
+  <si>
+    <t>Global Marketing Director</t>
+  </si>
+  <si>
+    <t>dave.bassi@gsk.com</t>
+  </si>
+  <si>
+    <t>Dave Bassi</t>
+  </si>
+  <si>
+    <t>Sales and Marketing Manager</t>
+  </si>
+  <si>
+    <t>Gulf Drug LLC - UAE</t>
+  </si>
+  <si>
+    <t>javed_iqbal@gulfdrug.com</t>
+  </si>
+  <si>
+    <t>https://www.gulfdrug.com/</t>
+  </si>
+  <si>
+    <t>Pharmaceuticals, Medical Devices</t>
+  </si>
+  <si>
+    <t>Javed Iqbal</t>
+  </si>
+  <si>
+    <t>Sales &amp; Marketing Pharma</t>
+  </si>
+  <si>
+    <t>+971 4 501 4000</t>
+  </si>
+  <si>
+    <t>danya_keblawi@gulfdrug.com</t>
+  </si>
+  <si>
+    <t>Danya Kiblawi</t>
+  </si>
+  <si>
+    <t>Marketing Communications Manager</t>
+  </si>
+  <si>
+    <t>Gulf Pharmaceutical Industries Julphar</t>
+  </si>
+  <si>
+    <t>aly.mousa@julphar.net</t>
+  </si>
+  <si>
+    <t>https://www.julphar.net</t>
+  </si>
+  <si>
+    <t>General Medicines</t>
+  </si>
+  <si>
+    <t>Aly Mousa</t>
+  </si>
+  <si>
+    <t>Vice President- Sales &amp; Marketing</t>
+  </si>
+  <si>
+    <t>+971 7 246 1461</t>
+  </si>
+  <si>
+    <t>otima@genqore.com</t>
+  </si>
+  <si>
+    <t>umer.a@gaelanmedical.com</t>
+  </si>
+  <si>
+    <t>Umer Ahad</t>
+  </si>
+  <si>
+    <t>Sales And Marketing</t>
+  </si>
+  <si>
+    <t>ashraf.radwan@yasholding.ae</t>
+  </si>
+  <si>
+    <t>Ashraf Radwan</t>
+  </si>
+  <si>
+    <t>zelwan@globalpharma.ae</t>
+  </si>
+  <si>
+    <t>Zeyad Elwan</t>
+  </si>
+  <si>
+    <t>khalid@greenpharma.ae</t>
+  </si>
+  <si>
+    <t>Khalid Abu Halwan</t>
+  </si>
+  <si>
+    <t>al.c.palaniappan@gsk.com</t>
+  </si>
+  <si>
+    <t>Al Palaniappan</t>
+  </si>
+  <si>
+    <t>Chief Operating Officer</t>
+  </si>
+  <si>
+    <t>Gulf Rider Medicines And Pharmaceuticals Store</t>
+  </si>
+  <si>
+    <t>mokhtar@gulfrider.com</t>
+  </si>
+  <si>
+    <t>https://www.gulfrider.com/</t>
+  </si>
+  <si>
+    <t>Medical Device</t>
+  </si>
+  <si>
+    <t>Wessam Mokhtar</t>
+  </si>
+  <si>
+    <t>+971 4 2675881</t>
+  </si>
+  <si>
+    <t>Smedtrum Medical Technology</t>
+  </si>
+  <si>
+    <t>smt@smedtrum.com</t>
+  </si>
+  <si>
+    <t>https://www.smedtrum.com/</t>
+  </si>
+  <si>
+    <t>Medical Aesthetic Devices</t>
+  </si>
+  <si>
+    <t>https://dubaiderma.com/exhibitors/, 2024</t>
+  </si>
+  <si>
+    <t>Oliver Chang</t>
+  </si>
+  <si>
+    <t>Sales Specialist</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Termosalud Medical &amp; Esthetic</t>
+  </si>
+  <si>
+    <t>export12@termosalud.com</t>
+  </si>
+  <si>
+    <t>http://www.termosalud.com/</t>
+  </si>
+  <si>
+    <t>Aesthetics And Medical Devices</t>
+  </si>
+  <si>
+    <t>Ricardo Sanz</t>
+  </si>
+  <si>
+    <t>+34 985 167 547</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Tracle Inc.</t>
+  </si>
+  <si>
+    <t>tmicmo@gmail.com</t>
+  </si>
+  <si>
+    <t>http://tracle.kr/</t>
+  </si>
+  <si>
+    <t>PRP Kit</t>
+  </si>
+  <si>
+    <t>Mr.Reeno Lee</t>
+  </si>
+  <si>
+    <t>+82 70-4696-5346</t>
+  </si>
+  <si>
+    <t>Korea, South</t>
+  </si>
+  <si>
+    <t>reenorich@naver.com</t>
+  </si>
+  <si>
+    <t>Lee Sang Baek</t>
+  </si>
+  <si>
+    <t>President</t>
+  </si>
+  <si>
+    <t>Triangel RSD Limited</t>
+  </si>
+  <si>
+    <t>director@triangelaser.com</t>
+  </si>
+  <si>
+    <t>https://www.triangelmed.com/</t>
+  </si>
+  <si>
+    <t>Medical Aesthetic Equipment</t>
+  </si>
+  <si>
+    <t>Jenny Shi</t>
+  </si>
+  <si>
+    <t>+86-15810767862 (W), +86-18931273229</t>
+  </si>
+  <si>
+    <t>Vegas Biotech Co., Ltd</t>
+  </si>
+  <si>
+    <t>contact@vegasbiotech.com</t>
+  </si>
+  <si>
+    <t>http://www.vegasbiotech.com</t>
+  </si>
+  <si>
+    <t>Medical And Laboratory Equipment And Consumables</t>
+  </si>
+  <si>
+    <t>Ms. Ada Chen</t>
+  </si>
+  <si>
+    <t>+86 13689550845</t>
+  </si>
+  <si>
+    <t>wendyliu@smedtrum.com</t>
+  </si>
+  <si>
+    <t>Wendy Liu</t>
+  </si>
+  <si>
+    <t>International Sales Regional Manager</t>
+  </si>
+  <si>
+    <t>Wizchem Co., Ltd</t>
+  </si>
+  <si>
+    <t>mjlee@wizchem.com</t>
+  </si>
+  <si>
+    <t>http://theraset.co.kr/</t>
+  </si>
+  <si>
+    <t>Injectable And Biocompatible Medical Device</t>
+  </si>
+  <si>
+    <t>Mj Lee</t>
+  </si>
+  <si>
+    <t>+82 70-7802-2420</t>
+  </si>
+  <si>
+    <t>Secondary</t>
+  </si>
+  <si>
+    <t>Safe Piercing Medical Equipments LLC</t>
+  </si>
+  <si>
+    <t>support@studexarabia.com</t>
+  </si>
+  <si>
+    <t>https://studexarabia.com/</t>
+  </si>
+  <si>
+    <t>Piercing Instruments Kits</t>
+  </si>
+  <si>
+    <t>Mohsin Mohamedy</t>
+  </si>
+  <si>
+    <t>+971 4 227 4196</t>
+  </si>
+  <si>
+    <t>+971 50 573 4387</t>
+  </si>
+  <si>
+    <t>Studex</t>
+  </si>
+  <si>
+    <t>ricardo@termosalud.com</t>
+  </si>
+  <si>
+    <t>alvaro.fernandez@termosalud.com</t>
+  </si>
+  <si>
+    <t>Alvaro del Valle Fernandez</t>
+  </si>
+  <si>
+    <t>Business Development Director</t>
+  </si>
+  <si>
+    <t>bfernandez@termosalud.com</t>
+  </si>
+  <si>
+    <t>Belen Fernandez</t>
+  </si>
+  <si>
+    <t>Executive Director</t>
+  </si>
+  <si>
+    <t>Tuscan SL</t>
+  </si>
+  <si>
+    <t>info@tuscansl.es</t>
+  </si>
+  <si>
+    <t>https://www.tuscansl.es/</t>
+  </si>
+  <si>
+    <t>Aesthetic Medicine</t>
+  </si>
+  <si>
+    <t>+34 948 48 50 48</t>
+  </si>
+  <si>
+    <t>Weero Co., Ltd.</t>
+  </si>
+  <si>
+    <t>eunice@weeroweero.com</t>
+  </si>
+  <si>
+    <t>https://www.weeroweero.com/</t>
+  </si>
+  <si>
+    <t>Medical/Aesthetic Equipment Manufacturer</t>
+  </si>
+  <si>
+    <t>Eunice Cho</t>
+  </si>
+  <si>
+    <t>Global Business Director</t>
+  </si>
+  <si>
+    <t>Wellfort Co.,Ltd</t>
+  </si>
+  <si>
+    <t>info@wellfort.co.kr</t>
+  </si>
+  <si>
+    <t>https://global.wellfort.co.kr/</t>
+  </si>
+  <si>
+    <t>Medical Devices, Disposables</t>
+  </si>
+  <si>
+    <t>Sam Hyungjin Cho</t>
+  </si>
+  <si>
+    <t>White Medience</t>
+  </si>
+  <si>
+    <t>manager@whitelift.net</t>
+  </si>
+  <si>
+    <t>https://whitemedience.com/</t>
+  </si>
+  <si>
+    <t>Aesthetic Medical Device</t>
+  </si>
+  <si>
+    <t>Hyongju Son</t>
+  </si>
+  <si>
+    <t>Manufacturing Director</t>
+  </si>
+  <si>
+    <t>+82 70-8223-5733</t>
+  </si>
+  <si>
+    <t>+82 10-4917-1390</t>
+  </si>
+  <si>
+    <t>F-E/email id available on website</t>
+  </si>
+  <si>
+    <t>way@whitelift.net</t>
+  </si>
+  <si>
+    <t>Ryan Sungho Lim</t>
+  </si>
+  <si>
+    <t>Global Commercial Director</t>
+  </si>
+  <si>
+    <t>Swiss Scientific Lab GmbH</t>
+  </si>
+  <si>
+    <t>info@swissscientificlab.ch</t>
+  </si>
+  <si>
+    <t>https://swissscientificlab.ch/</t>
+  </si>
+  <si>
+    <t>Medical Devices</t>
+  </si>
+  <si>
+    <t>Raffaello Marco Sartorio</t>
+  </si>
+  <si>
+    <t>+41 76 510 06 29</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Technolux Srl</t>
+  </si>
+  <si>
+    <t>martino@technolux.it</t>
+  </si>
+  <si>
+    <t>http://www.tecnolux-italia.it/</t>
+  </si>
+  <si>
+    <t>Medical Equipment For Surgery, Dermatology And Aesthetic Medicine</t>
+  </si>
+  <si>
+    <t>Martino Luzzara</t>
+  </si>
+  <si>
+    <t>Marketing Manager And Bussines Development</t>
+  </si>
+  <si>
+    <t>+39 45 7350757</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Tema Medicina Srl</t>
+  </si>
+  <si>
+    <t>info@temamedicina.com</t>
+  </si>
+  <si>
+    <t>https://temamedicina.it/</t>
+  </si>
+  <si>
+    <t>+39 51 0828 559</t>
+  </si>
+  <si>
+    <t>Tszen Co. Ltd</t>
+  </si>
+  <si>
+    <t>min@tszen.co.kr</t>
+  </si>
+  <si>
+    <t>http://www.tszen.co.kr/</t>
+  </si>
+  <si>
+    <t>Min Ohm</t>
+  </si>
+  <si>
+    <t>Overseas Sales</t>
+  </si>
+  <si>
+    <t>+82 7046512133</t>
+  </si>
+  <si>
+    <t>jenny_shi@triangelaser.com</t>
+  </si>
+  <si>
+    <t>+86 13400269893 (W)</t>
+  </si>
+  <si>
+    <t>yolanda@triangelaser.com</t>
+  </si>
+  <si>
+    <t>Yolanda Shi</t>
+  </si>
+  <si>
+    <t>Manager of Sales</t>
+  </si>
+  <si>
+    <t>+86 15033841027 (W)</t>
+  </si>
+  <si>
+    <t>Ultra V Co.,Ltd.</t>
+  </si>
+  <si>
+    <t>billyko@ultrav.co.kr</t>
+  </si>
+  <si>
+    <t>http://www.ultrav.co.kr/</t>
+  </si>
+  <si>
+    <t>Billy Ko</t>
+  </si>
+  <si>
+    <t>Assistant Manager</t>
+  </si>
+  <si>
+    <t>Uptourn Lab Trading LLC</t>
+  </si>
+  <si>
+    <t>info@uptourn.com</t>
+  </si>
+  <si>
+    <t>https://uptourn.com/</t>
+  </si>
+  <si>
+    <t>Medical-Grade, Monophasic Fillers</t>
+  </si>
+  <si>
+    <t>Mirafshar Babak</t>
+  </si>
+  <si>
+    <t>+971 42 61 0068</t>
+  </si>
+  <si>
+    <t>WeThrivv LLC</t>
+  </si>
+  <si>
+    <t>sanjay@wethrivv.com</t>
+  </si>
+  <si>
+    <t>https://wethrivv.com/</t>
+  </si>
+  <si>
+    <t>Aesthetics Products</t>
+  </si>
+  <si>
+    <t>Sanjay Batra</t>
+  </si>
+  <si>
+    <t>Co-Founder</t>
+  </si>
+  <si>
+    <t>+1 877-676-8875</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>Wellspharmtech Co., Ltd.</t>
+  </si>
+  <si>
+    <t>wellsgroup@wellsgroup.co.kr</t>
+  </si>
+  <si>
+    <t>https://wellsglobal.kr/</t>
+  </si>
+  <si>
+    <t>Anesthetic Cream, Masks Packs</t>
+  </si>
+  <si>
+    <t>Sung Jun Kim</t>
+  </si>
+  <si>
+    <t>+82-10-5541-1994 (W)</t>
+  </si>
+  <si>
+    <t>Suisselle SA</t>
+  </si>
+  <si>
+    <t>info@suisselle.com</t>
+  </si>
+  <si>
+    <t>https://suisselle.com/</t>
+  </si>
+  <si>
+    <t>Injectable Boosters</t>
+  </si>
+  <si>
+    <t>Shiva Gheymati</t>
+  </si>
+  <si>
+    <t>Export Manager</t>
+  </si>
+  <si>
+    <t>+41 21 544 32 80</t>
+  </si>
+  <si>
+    <t>shiva@suisselle.com</t>
+  </si>
+  <si>
+    <t>marianna.astakhova@suisselle.ch</t>
+  </si>
+  <si>
+    <t>Marianna Astakhova</t>
+  </si>
+  <si>
+    <t>Swiss Plasmabiotech GmbH</t>
+  </si>
+  <si>
+    <t>info@plasmabiotech.ch</t>
+  </si>
+  <si>
+    <t>https://plasmabiotech.ch/</t>
+  </si>
+  <si>
+    <t>Autologous Blood Plasma Therapy</t>
+  </si>
+  <si>
+    <t>Ihsan Yalcin</t>
+  </si>
+  <si>
+    <t>Chief Executive Officer</t>
+  </si>
+  <si>
+    <t>+41 44 548 73 23</t>
+  </si>
+  <si>
+    <t>cool@tszen.co.kr</t>
+  </si>
+  <si>
+    <t>Cool Kim</t>
+  </si>
+  <si>
+    <t>export@termosalud.com</t>
+  </si>
+  <si>
+    <t>tmbacket@gmail.com</t>
+  </si>
+  <si>
+    <t>Mr.Thomas Lee</t>
+  </si>
+  <si>
+    <t>oliverchang@smedtrum.com</t>
+  </si>
+  <si>
+    <t>Viocap AG</t>
+  </si>
+  <si>
+    <t>info@viocap.ch</t>
+  </si>
+  <si>
+    <t>https://www.72k.ch/</t>
+  </si>
+  <si>
+    <t>Face Serum, Eye Serum</t>
+  </si>
+  <si>
+    <t>Pei Angela Willimann</t>
+  </si>
+  <si>
+    <t>+41 617218474</t>
+  </si>
+  <si>
+    <t>weero@weeroweero.com</t>
+  </si>
+  <si>
+    <t>messiah@whitelift.net</t>
+  </si>
+  <si>
+    <t>Sunghwan Park</t>
+  </si>
+  <si>
+    <t>General Director</t>
+  </si>
+  <si>
+    <t>+82 10-3169-8586</t>
+  </si>
+  <si>
+    <t>amy@wethrivv.com</t>
+  </si>
+  <si>
+    <t>Amy Batra</t>
+  </si>
+  <si>
+    <t>Co-Founder &amp; President</t>
+  </si>
+  <si>
+    <t>claire.tixier-imbert@suisselle.ch</t>
+  </si>
+  <si>
+    <t>Claire Tixier - Imbert</t>
+  </si>
+  <si>
+    <t>Head Of Marketing &amp; Communication</t>
+  </si>
+  <si>
+    <t>Aonmed Medical Supplies</t>
+  </si>
+  <si>
+    <t>contact@aonmed.co.ke</t>
+  </si>
+  <si>
+    <t>http://www.aonmed.co.ke</t>
+  </si>
+  <si>
+    <t>Healthcare Products</t>
+  </si>
+  <si>
+    <t>Dubai Exporters Listing 2024</t>
+  </si>
+  <si>
+    <t>Omwando Abel Nyakwara</t>
+  </si>
+  <si>
+    <t>Managing Directo</t>
+  </si>
+  <si>
+    <t>+254 7 24618843</t>
+  </si>
+  <si>
+    <t>+254 0724618843</t>
+  </si>
+  <si>
+    <t>Isla Aesthetics Perfumes &amp; Cosmetics Trading Llc</t>
+  </si>
+  <si>
+    <t>sales@isla-med.com</t>
+  </si>
+  <si>
+    <t>https://www.isla-med.com/</t>
+  </si>
+  <si>
+    <t>Esthetician Supplies Wholesale</t>
+  </si>
+  <si>
+    <t>Isabella Martinez</t>
+  </si>
+  <si>
+    <t>+971 58 550 1908</t>
   </si>
 </sst>
 </file>
@@ -391,13 +1735,12 @@
   <dimension ref="A1:Q172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.44140625" customWidth="1"/>
-    <col min="10" max="10" width="42.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -454,297 +1797,3960 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O2" s="1"/>
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1">
+        <v>45341.729675925926</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O3" s="1"/>
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="1">
+        <v>45341.728518518517</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O4" s="1"/>
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="1">
+        <v>45341.726018518515</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O5" s="1"/>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="1">
+        <v>45341.723993055559</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O6" s="1"/>
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="1">
+        <v>45341.709293981483</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O7" s="1"/>
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7">
+        <f>82-31-8068-1400</f>
+        <v>-9417</v>
+      </c>
+      <c r="K7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" s="1">
+        <v>45341.709293981483</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O8" s="1"/>
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8">
+        <f>82-31-8068-1400</f>
+        <v>-9417</v>
+      </c>
+      <c r="K8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="1">
+        <v>45341.709293981483</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O9" s="1"/>
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9">
+        <f>82-31-8068-1400</f>
+        <v>-9417</v>
+      </c>
+      <c r="K9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="1">
+        <v>45341.709293981483</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O10" s="1"/>
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10">
+        <f>82-31-8068-1400</f>
+        <v>-9417</v>
+      </c>
+      <c r="K10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" s="1">
+        <v>45341.709293981483</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O11" s="1"/>
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="1">
+        <v>45341.709293981483</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O12" s="1"/>
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12">
+        <f>86-769-39017368</f>
+        <v>-39018051</v>
+      </c>
+      <c r="J12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" s="1">
+        <v>45341.709293981483</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" s="1">
+        <v>45341.666273148148</v>
+      </c>
+      <c r="P13" s="1">
+        <v>45341.74391203704</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" s="1">
+        <v>45341.666273148148</v>
+      </c>
+      <c r="P14" s="1">
+        <v>45341.74391203704</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" t="s">
+        <v>82</v>
+      </c>
+      <c r="L15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="1">
+        <v>45341.666273148148</v>
+      </c>
+      <c r="P15" s="1">
+        <v>45341.74391203704</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O36" s="1"/>
-    </row>
-    <row r="37" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O37" s="1"/>
-    </row>
-    <row r="38" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O38" s="1"/>
-    </row>
-    <row r="39" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O39" s="1"/>
-    </row>
-    <row r="40" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O40" s="1"/>
-    </row>
-    <row r="41" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O41" s="1"/>
-    </row>
-    <row r="42" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O42" s="1"/>
-    </row>
-    <row r="43" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O43" s="1"/>
-    </row>
-    <row r="44" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O44" s="1"/>
-    </row>
-    <row r="45" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O45" s="1"/>
-    </row>
-    <row r="46" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O46" s="1"/>
-    </row>
-    <row r="47" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O47" s="1"/>
-    </row>
-    <row r="48" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O48" s="1"/>
-    </row>
-    <row r="49" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O49" s="1"/>
-    </row>
-    <row r="50" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O50" s="1"/>
-    </row>
-    <row r="51" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O51" s="1"/>
-    </row>
-    <row r="52" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O52" s="1"/>
-    </row>
-    <row r="53" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O53" s="1"/>
-    </row>
-    <row r="54" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O54" s="1"/>
-    </row>
-    <row r="55" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O55" s="1"/>
-    </row>
-    <row r="56" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O56" s="1"/>
-    </row>
-    <row r="57" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O57" s="1"/>
-    </row>
-    <row r="58" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O58" s="1"/>
-    </row>
-    <row r="59" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O59" s="1"/>
-    </row>
-    <row r="60" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O60" s="1"/>
-    </row>
-    <row r="61" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O61" s="1"/>
-    </row>
-    <row r="62" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O62" s="1"/>
-    </row>
-    <row r="63" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O63" s="1"/>
-    </row>
-    <row r="64" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O64" s="1"/>
-    </row>
-    <row r="65" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O65" s="1"/>
-    </row>
-    <row r="66" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O66" s="1"/>
-    </row>
-    <row r="67" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O67" s="1"/>
-    </row>
-    <row r="68" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O68" s="1"/>
-    </row>
-    <row r="69" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O69" s="1"/>
-    </row>
-    <row r="70" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O70" s="1"/>
-    </row>
-    <row r="71" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O71" s="1"/>
-    </row>
-    <row r="72" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O72" s="1"/>
-    </row>
-    <row r="73" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O73" s="1"/>
-    </row>
-    <row r="74" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O74" s="1"/>
-    </row>
-    <row r="75" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O75" s="1"/>
-    </row>
-    <row r="76" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O76" s="1"/>
-    </row>
-    <row r="77" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O77" s="1"/>
-    </row>
-    <row r="78" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O78" s="1"/>
-    </row>
-    <row r="79" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O79" s="1"/>
-    </row>
-    <row r="80" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O80" s="1"/>
-    </row>
-    <row r="81" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O81" s="1"/>
-    </row>
-    <row r="82" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O82" s="1"/>
-    </row>
-    <row r="83" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O83" s="1"/>
-    </row>
-    <row r="84" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O84" s="1"/>
-    </row>
-    <row r="85" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O85" s="1"/>
-    </row>
-    <row r="86" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O86" s="1"/>
-    </row>
-    <row r="87" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O87" s="1"/>
-    </row>
-    <row r="88" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O88" s="1"/>
-    </row>
-    <row r="89" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O89" s="1"/>
-    </row>
-    <row r="90" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O90" s="1"/>
-    </row>
-    <row r="91" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O91" s="1"/>
-    </row>
-    <row r="92" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O92" s="1"/>
-    </row>
-    <row r="93" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O93" s="1"/>
-    </row>
-    <row r="94" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" t="s">
+        <v>82</v>
+      </c>
+      <c r="L16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" s="1">
+        <v>45341.666273148148</v>
+      </c>
+      <c r="P16" s="1">
+        <v>45341.74391203704</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" t="s">
+        <v>113</v>
+      </c>
+      <c r="K17" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17" s="1">
+        <v>45341.666273148148</v>
+      </c>
+      <c r="P17" s="1">
+        <v>45341.74391203704</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" t="s">
+        <v>120</v>
+      </c>
+      <c r="K18" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18" s="1">
+        <v>45341.666273148148</v>
+      </c>
+      <c r="P18" s="1">
+        <v>45341.74391203704</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" t="s">
+        <v>98</v>
+      </c>
+      <c r="O19" s="1">
+        <v>45341.666273148148</v>
+      </c>
+      <c r="P19" s="1">
+        <v>45341.74391203704</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" t="s">
+        <v>130</v>
+      </c>
+      <c r="I20" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" t="s">
+        <v>132</v>
+      </c>
+      <c r="L20" t="s">
+        <v>133</v>
+      </c>
+      <c r="O20" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" t="s">
+        <v>135</v>
+      </c>
+      <c r="H21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" t="s">
+        <v>132</v>
+      </c>
+      <c r="L21" t="s">
+        <v>133</v>
+      </c>
+      <c r="O21" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" t="s">
+        <v>141</v>
+      </c>
+      <c r="K22" t="s">
+        <v>132</v>
+      </c>
+      <c r="L22" t="s">
+        <v>133</v>
+      </c>
+      <c r="O22" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" t="s">
+        <v>146</v>
+      </c>
+      <c r="I23" t="s">
+        <v>147</v>
+      </c>
+      <c r="K23" t="s">
+        <v>132</v>
+      </c>
+      <c r="L23" t="s">
+        <v>133</v>
+      </c>
+      <c r="O23" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" t="s">
+        <v>152</v>
+      </c>
+      <c r="H24" t="s">
+        <v>153</v>
+      </c>
+      <c r="I24" t="s">
+        <v>154</v>
+      </c>
+      <c r="K24" t="s">
+        <v>155</v>
+      </c>
+      <c r="L24" t="s">
+        <v>98</v>
+      </c>
+      <c r="M24" t="s">
+        <v>60</v>
+      </c>
+      <c r="O24" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" t="s">
+        <v>158</v>
+      </c>
+      <c r="I25" t="s">
+        <v>154</v>
+      </c>
+      <c r="K25" t="s">
+        <v>155</v>
+      </c>
+      <c r="L25" t="s">
+        <v>98</v>
+      </c>
+      <c r="M25" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" t="s">
+        <v>163</v>
+      </c>
+      <c r="H26" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" t="s">
+        <v>164</v>
+      </c>
+      <c r="K26" t="s">
+        <v>165</v>
+      </c>
+      <c r="L26" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26" t="s">
+        <v>60</v>
+      </c>
+      <c r="O26" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" t="s">
+        <v>163</v>
+      </c>
+      <c r="H27" t="s">
+        <v>123</v>
+      </c>
+      <c r="I27" t="s">
+        <v>164</v>
+      </c>
+      <c r="K27" t="s">
+        <v>165</v>
+      </c>
+      <c r="L27" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" t="s">
+        <v>60</v>
+      </c>
+      <c r="O27" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" t="s">
+        <v>168</v>
+      </c>
+      <c r="H28" t="s">
+        <v>108</v>
+      </c>
+      <c r="I28" t="s">
+        <v>164</v>
+      </c>
+      <c r="K28" t="s">
+        <v>165</v>
+      </c>
+      <c r="L28" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" t="s">
+        <v>60</v>
+      </c>
+      <c r="O28" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" t="s">
+        <v>173</v>
+      </c>
+      <c r="H29" t="s">
+        <v>174</v>
+      </c>
+      <c r="I29" t="s">
+        <v>175</v>
+      </c>
+      <c r="K29" t="s">
+        <v>132</v>
+      </c>
+      <c r="L29" t="s">
+        <v>133</v>
+      </c>
+      <c r="O29" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" t="s">
+        <v>172</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" t="s">
+        <v>177</v>
+      </c>
+      <c r="H30" t="s">
+        <v>178</v>
+      </c>
+      <c r="I30" t="s">
+        <v>175</v>
+      </c>
+      <c r="K30" t="s">
+        <v>132</v>
+      </c>
+      <c r="L30" t="s">
+        <v>133</v>
+      </c>
+      <c r="O30" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" t="s">
+        <v>177</v>
+      </c>
+      <c r="H31" t="s">
+        <v>178</v>
+      </c>
+      <c r="I31" t="s">
+        <v>175</v>
+      </c>
+      <c r="K31" t="s">
+        <v>132</v>
+      </c>
+      <c r="L31" t="s">
+        <v>133</v>
+      </c>
+      <c r="O31" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" t="s">
+        <v>184</v>
+      </c>
+      <c r="H32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I32" t="s">
+        <v>185</v>
+      </c>
+      <c r="K32" t="s">
+        <v>132</v>
+      </c>
+      <c r="L32" t="s">
+        <v>133</v>
+      </c>
+      <c r="O32" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" t="s">
+        <v>190</v>
+      </c>
+      <c r="H33" t="s">
+        <v>191</v>
+      </c>
+      <c r="I33" t="s">
+        <v>192</v>
+      </c>
+      <c r="K33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" t="s">
+        <v>33</v>
+      </c>
+      <c r="M33" t="s">
+        <v>60</v>
+      </c>
+      <c r="O33" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" t="s">
+        <v>188</v>
+      </c>
+      <c r="D34" t="s">
+        <v>189</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" t="s">
+        <v>194</v>
+      </c>
+      <c r="H34" t="s">
+        <v>195</v>
+      </c>
+      <c r="I34" t="s">
+        <v>192</v>
+      </c>
+      <c r="K34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" t="s">
+        <v>33</v>
+      </c>
+      <c r="M34" t="s">
+        <v>60</v>
+      </c>
+      <c r="O34" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>196</v>
+      </c>
+      <c r="B35" t="s">
+        <v>197</v>
+      </c>
+      <c r="C35" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" t="s">
+        <v>199</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" t="s">
+        <v>200</v>
+      </c>
+      <c r="H35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I35" t="s">
+        <v>201</v>
+      </c>
+      <c r="K35" t="s">
+        <v>132</v>
+      </c>
+      <c r="L35" t="s">
+        <v>133</v>
+      </c>
+      <c r="O35" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" t="s">
+        <v>205</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" t="s">
+        <v>206</v>
+      </c>
+      <c r="H36" t="s">
+        <v>207</v>
+      </c>
+      <c r="I36" t="s">
+        <v>208</v>
+      </c>
+      <c r="K36" t="s">
+        <v>132</v>
+      </c>
+      <c r="L36" t="s">
+        <v>133</v>
+      </c>
+      <c r="O36" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" t="s">
+        <v>209</v>
+      </c>
+      <c r="C37" t="s">
+        <v>204</v>
+      </c>
+      <c r="D37" t="s">
+        <v>205</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
+        <v>128</v>
+      </c>
+      <c r="G37" t="s">
+        <v>210</v>
+      </c>
+      <c r="H37" t="s">
+        <v>211</v>
+      </c>
+      <c r="I37" t="s">
+        <v>208</v>
+      </c>
+      <c r="K37" t="s">
+        <v>132</v>
+      </c>
+      <c r="L37" t="s">
+        <v>133</v>
+      </c>
+      <c r="O37" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" t="s">
+        <v>215</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" t="s">
+        <v>216</v>
+      </c>
+      <c r="H38" t="s">
+        <v>217</v>
+      </c>
+      <c r="I38" t="s">
+        <v>218</v>
+      </c>
+      <c r="K38" t="s">
+        <v>132</v>
+      </c>
+      <c r="L38" t="s">
+        <v>133</v>
+      </c>
+      <c r="O38" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>212</v>
+      </c>
+      <c r="B39" t="s">
+        <v>219</v>
+      </c>
+      <c r="C39" t="s">
+        <v>214</v>
+      </c>
+      <c r="D39" t="s">
+        <v>215</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>128</v>
+      </c>
+      <c r="G39" t="s">
+        <v>220</v>
+      </c>
+      <c r="H39" t="s">
+        <v>108</v>
+      </c>
+      <c r="I39" t="s">
+        <v>218</v>
+      </c>
+      <c r="K39" t="s">
+        <v>132</v>
+      </c>
+      <c r="L39" t="s">
+        <v>133</v>
+      </c>
+      <c r="O39" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" t="s">
+        <v>221</v>
+      </c>
+      <c r="C40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" t="s">
+        <v>222</v>
+      </c>
+      <c r="H40" t="s">
+        <v>223</v>
+      </c>
+      <c r="I40" t="s">
+        <v>154</v>
+      </c>
+      <c r="K40" t="s">
+        <v>155</v>
+      </c>
+      <c r="L40" t="s">
+        <v>98</v>
+      </c>
+      <c r="M40" t="s">
+        <v>60</v>
+      </c>
+      <c r="O40" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" t="s">
+        <v>224</v>
+      </c>
+      <c r="C41" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41" t="s">
+        <v>225</v>
+      </c>
+      <c r="H41" t="s">
+        <v>226</v>
+      </c>
+      <c r="I41" t="s">
+        <v>154</v>
+      </c>
+      <c r="K41" t="s">
+        <v>155</v>
+      </c>
+      <c r="L41" t="s">
+        <v>98</v>
+      </c>
+      <c r="M41" t="s">
+        <v>60</v>
+      </c>
+      <c r="O41" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>227</v>
+      </c>
+      <c r="B42" t="s">
+        <v>228</v>
+      </c>
+      <c r="C42" t="s">
+        <v>229</v>
+      </c>
+      <c r="D42" t="s">
+        <v>230</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" t="s">
+        <v>128</v>
+      </c>
+      <c r="G42" t="s">
+        <v>231</v>
+      </c>
+      <c r="H42" t="s">
+        <v>232</v>
+      </c>
+      <c r="I42" t="s">
+        <v>233</v>
+      </c>
+      <c r="K42" t="s">
+        <v>132</v>
+      </c>
+      <c r="L42" t="s">
+        <v>133</v>
+      </c>
+      <c r="O42" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>227</v>
+      </c>
+      <c r="B43" t="s">
+        <v>234</v>
+      </c>
+      <c r="C43" t="s">
+        <v>229</v>
+      </c>
+      <c r="D43" t="s">
+        <v>230</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
+        <v>128</v>
+      </c>
+      <c r="G43" t="s">
+        <v>235</v>
+      </c>
+      <c r="H43" t="s">
+        <v>236</v>
+      </c>
+      <c r="I43" t="s">
+        <v>233</v>
+      </c>
+      <c r="K43" t="s">
+        <v>132</v>
+      </c>
+      <c r="L43" t="s">
+        <v>133</v>
+      </c>
+      <c r="O43" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>237</v>
+      </c>
+      <c r="B44" t="s">
+        <v>238</v>
+      </c>
+      <c r="C44" t="s">
+        <v>239</v>
+      </c>
+      <c r="D44" t="s">
+        <v>240</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" t="s">
+        <v>128</v>
+      </c>
+      <c r="G44" t="s">
+        <v>241</v>
+      </c>
+      <c r="H44" t="s">
+        <v>242</v>
+      </c>
+      <c r="I44" t="s">
+        <v>243</v>
+      </c>
+      <c r="K44" t="s">
+        <v>132</v>
+      </c>
+      <c r="L44" t="s">
+        <v>133</v>
+      </c>
+      <c r="O44" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" t="s">
+        <v>244</v>
+      </c>
+      <c r="C45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" t="s">
+        <v>128</v>
+      </c>
+      <c r="G45" t="s">
+        <v>129</v>
+      </c>
+      <c r="H45" t="s">
+        <v>130</v>
+      </c>
+      <c r="I45" t="s">
+        <v>131</v>
+      </c>
+      <c r="K45" t="s">
+        <v>132</v>
+      </c>
+      <c r="L45" t="s">
+        <v>133</v>
+      </c>
+      <c r="O45" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" t="s">
+        <v>245</v>
+      </c>
+      <c r="C46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" t="s">
+        <v>246</v>
+      </c>
+      <c r="H46" t="s">
+        <v>247</v>
+      </c>
+      <c r="I46" t="s">
+        <v>141</v>
+      </c>
+      <c r="K46" t="s">
+        <v>132</v>
+      </c>
+      <c r="L46" t="s">
+        <v>133</v>
+      </c>
+      <c r="O46" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" t="s">
+        <v>145</v>
+      </c>
+      <c r="E47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47" t="s">
+        <v>249</v>
+      </c>
+      <c r="H47" t="s">
+        <v>50</v>
+      </c>
+      <c r="I47" t="s">
+        <v>147</v>
+      </c>
+      <c r="K47" t="s">
+        <v>132</v>
+      </c>
+      <c r="L47" t="s">
+        <v>133</v>
+      </c>
+      <c r="O47" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" t="s">
+        <v>250</v>
+      </c>
+      <c r="C48" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48" t="s">
+        <v>183</v>
+      </c>
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" t="s">
+        <v>251</v>
+      </c>
+      <c r="H48" t="s">
+        <v>123</v>
+      </c>
+      <c r="I48" t="s">
+        <v>185</v>
+      </c>
+      <c r="K48" t="s">
+        <v>132</v>
+      </c>
+      <c r="L48" t="s">
+        <v>133</v>
+      </c>
+      <c r="O48" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>196</v>
+      </c>
+      <c r="B49" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D49" t="s">
+        <v>199</v>
+      </c>
+      <c r="E49" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" t="s">
+        <v>128</v>
+      </c>
+      <c r="G49" t="s">
+        <v>253</v>
+      </c>
+      <c r="H49" t="s">
+        <v>108</v>
+      </c>
+      <c r="I49" t="s">
+        <v>201</v>
+      </c>
+      <c r="K49" t="s">
+        <v>132</v>
+      </c>
+      <c r="L49" t="s">
+        <v>133</v>
+      </c>
+      <c r="O49" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" t="s">
+        <v>128</v>
+      </c>
+      <c r="G50" t="s">
+        <v>255</v>
+      </c>
+      <c r="H50" t="s">
+        <v>256</v>
+      </c>
+      <c r="I50" t="s">
+        <v>154</v>
+      </c>
+      <c r="K50" t="s">
+        <v>155</v>
+      </c>
+      <c r="L50" t="s">
+        <v>98</v>
+      </c>
+      <c r="M50" t="s">
+        <v>60</v>
+      </c>
+      <c r="O50" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>257</v>
+      </c>
+      <c r="B51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C51" t="s">
+        <v>259</v>
+      </c>
+      <c r="D51" t="s">
+        <v>260</v>
+      </c>
+      <c r="E51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" t="s">
+        <v>128</v>
+      </c>
+      <c r="G51" t="s">
+        <v>261</v>
+      </c>
+      <c r="H51" t="s">
+        <v>108</v>
+      </c>
+      <c r="I51" t="s">
+        <v>262</v>
+      </c>
+      <c r="K51" t="s">
+        <v>132</v>
+      </c>
+      <c r="L51" t="s">
+        <v>133</v>
+      </c>
+      <c r="O51" s="1">
+        <v>45341.601458333331</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>263</v>
+      </c>
+      <c r="B52" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" t="s">
+        <v>265</v>
+      </c>
+      <c r="D52" t="s">
+        <v>266</v>
+      </c>
+      <c r="E52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" t="s">
+        <v>267</v>
+      </c>
+      <c r="G52" t="s">
+        <v>268</v>
+      </c>
+      <c r="H52" t="s">
+        <v>269</v>
+      </c>
+      <c r="I52">
+        <f>886-2-22989578</f>
+        <v>-22988694</v>
+      </c>
+      <c r="K52" t="s">
+        <v>270</v>
+      </c>
+      <c r="L52" t="s">
+        <v>33</v>
+      </c>
+      <c r="M52" t="s">
+        <v>60</v>
+      </c>
+      <c r="O52" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>271</v>
+      </c>
+      <c r="B53" t="s">
+        <v>272</v>
+      </c>
+      <c r="C53" t="s">
+        <v>273</v>
+      </c>
+      <c r="D53" t="s">
+        <v>274</v>
+      </c>
+      <c r="E53" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" t="s">
+        <v>267</v>
+      </c>
+      <c r="G53" t="s">
+        <v>275</v>
+      </c>
+      <c r="H53" t="s">
+        <v>66</v>
+      </c>
+      <c r="J53" t="s">
+        <v>276</v>
+      </c>
+      <c r="K53" t="s">
+        <v>277</v>
+      </c>
+      <c r="L53" t="s">
+        <v>98</v>
+      </c>
+      <c r="M53" t="s">
+        <v>60</v>
+      </c>
+      <c r="O53" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>278</v>
+      </c>
+      <c r="B54" t="s">
+        <v>279</v>
+      </c>
+      <c r="C54" t="s">
+        <v>280</v>
+      </c>
+      <c r="D54" t="s">
+        <v>281</v>
+      </c>
+      <c r="E54" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" t="s">
+        <v>267</v>
+      </c>
+      <c r="G54" t="s">
+        <v>282</v>
+      </c>
+      <c r="I54" t="s">
+        <v>283</v>
+      </c>
+      <c r="J54">
+        <f>82-10-6790-8182</f>
+        <v>-14900</v>
+      </c>
+      <c r="K54" t="s">
+        <v>284</v>
+      </c>
+      <c r="L54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M54" t="s">
+        <v>60</v>
+      </c>
+      <c r="O54" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>278</v>
+      </c>
+      <c r="B55" t="s">
+        <v>285</v>
+      </c>
+      <c r="C55" t="s">
+        <v>280</v>
+      </c>
+      <c r="D55" t="s">
+        <v>281</v>
+      </c>
+      <c r="E55" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" t="s">
+        <v>267</v>
+      </c>
+      <c r="G55" t="s">
+        <v>286</v>
+      </c>
+      <c r="H55" t="s">
+        <v>287</v>
+      </c>
+      <c r="I55" t="s">
+        <v>283</v>
+      </c>
+      <c r="K55" t="s">
+        <v>284</v>
+      </c>
+      <c r="L55" t="s">
+        <v>33</v>
+      </c>
+      <c r="M55" t="s">
+        <v>60</v>
+      </c>
+      <c r="O55" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>288</v>
+      </c>
+      <c r="B56" t="s">
+        <v>289</v>
+      </c>
+      <c r="C56" t="s">
+        <v>290</v>
+      </c>
+      <c r="D56" t="s">
+        <v>291</v>
+      </c>
+      <c r="E56" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" t="s">
+        <v>267</v>
+      </c>
+      <c r="G56" t="s">
+        <v>292</v>
+      </c>
+      <c r="H56" t="s">
+        <v>108</v>
+      </c>
+      <c r="J56" t="s">
+        <v>293</v>
+      </c>
+      <c r="K56" t="s">
+        <v>82</v>
+      </c>
+      <c r="L56" t="s">
+        <v>33</v>
+      </c>
+      <c r="M56" t="s">
+        <v>60</v>
+      </c>
+      <c r="O56" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>294</v>
+      </c>
+      <c r="B57" t="s">
+        <v>295</v>
+      </c>
+      <c r="C57" t="s">
+        <v>296</v>
+      </c>
+      <c r="D57" t="s">
+        <v>297</v>
+      </c>
+      <c r="E57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" t="s">
+        <v>267</v>
+      </c>
+      <c r="G57" t="s">
+        <v>298</v>
+      </c>
+      <c r="J57" t="s">
+        <v>299</v>
+      </c>
+      <c r="K57" t="s">
+        <v>82</v>
+      </c>
+      <c r="L57" t="s">
+        <v>33</v>
+      </c>
+      <c r="M57" t="s">
+        <v>60</v>
+      </c>
+      <c r="O57" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>263</v>
+      </c>
+      <c r="B58" t="s">
+        <v>300</v>
+      </c>
+      <c r="C58" t="s">
+        <v>265</v>
+      </c>
+      <c r="D58" t="s">
+        <v>266</v>
+      </c>
+      <c r="E58" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" t="s">
+        <v>267</v>
+      </c>
+      <c r="G58" t="s">
+        <v>301</v>
+      </c>
+      <c r="H58" t="s">
+        <v>302</v>
+      </c>
+      <c r="I58">
+        <f>886-2-22989578</f>
+        <v>-22988694</v>
+      </c>
+      <c r="K58" t="s">
+        <v>270</v>
+      </c>
+      <c r="L58" t="s">
+        <v>33</v>
+      </c>
+      <c r="M58" t="s">
+        <v>60</v>
+      </c>
+      <c r="O58" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>303</v>
+      </c>
+      <c r="B59" t="s">
+        <v>304</v>
+      </c>
+      <c r="C59" t="s">
+        <v>305</v>
+      </c>
+      <c r="D59" t="s">
+        <v>306</v>
+      </c>
+      <c r="E59" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" t="s">
+        <v>267</v>
+      </c>
+      <c r="G59" t="s">
+        <v>307</v>
+      </c>
+      <c r="H59" t="s">
+        <v>287</v>
+      </c>
+      <c r="I59" t="s">
+        <v>308</v>
+      </c>
+      <c r="K59" t="s">
+        <v>284</v>
+      </c>
+      <c r="L59" t="s">
+        <v>33</v>
+      </c>
+      <c r="M59" t="s">
+        <v>60</v>
+      </c>
+      <c r="O59" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>310</v>
+      </c>
+      <c r="B60" t="s">
+        <v>311</v>
+      </c>
+      <c r="C60" t="s">
+        <v>312</v>
+      </c>
+      <c r="D60" t="s">
+        <v>313</v>
+      </c>
+      <c r="E60" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" t="s">
+        <v>267</v>
+      </c>
+      <c r="G60" t="s">
+        <v>314</v>
+      </c>
+      <c r="H60" t="s">
+        <v>75</v>
+      </c>
+      <c r="I60" t="s">
+        <v>315</v>
+      </c>
+      <c r="J60" t="s">
+        <v>316</v>
+      </c>
+      <c r="K60" t="s">
+        <v>132</v>
+      </c>
+      <c r="L60" t="s">
+        <v>133</v>
+      </c>
+      <c r="M60" t="s">
+        <v>317</v>
+      </c>
+      <c r="O60" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>271</v>
+      </c>
+      <c r="B61" t="s">
+        <v>318</v>
+      </c>
+      <c r="C61" t="s">
+        <v>273</v>
+      </c>
+      <c r="D61" t="s">
+        <v>274</v>
+      </c>
+      <c r="E61" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" t="s">
+        <v>267</v>
+      </c>
+      <c r="G61" t="s">
+        <v>275</v>
+      </c>
+      <c r="H61" t="s">
+        <v>66</v>
+      </c>
+      <c r="J61" t="s">
+        <v>276</v>
+      </c>
+      <c r="K61" t="s">
+        <v>277</v>
+      </c>
+      <c r="L61" t="s">
+        <v>98</v>
+      </c>
+      <c r="M61" t="s">
+        <v>60</v>
+      </c>
+      <c r="O61" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>271</v>
+      </c>
+      <c r="B62" t="s">
+        <v>319</v>
+      </c>
+      <c r="C62" t="s">
+        <v>273</v>
+      </c>
+      <c r="D62" t="s">
+        <v>274</v>
+      </c>
+      <c r="E62" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" t="s">
+        <v>267</v>
+      </c>
+      <c r="G62" t="s">
+        <v>320</v>
+      </c>
+      <c r="H62" t="s">
+        <v>321</v>
+      </c>
+      <c r="J62" t="s">
+        <v>276</v>
+      </c>
+      <c r="K62" t="s">
+        <v>277</v>
+      </c>
+      <c r="L62" t="s">
+        <v>98</v>
+      </c>
+      <c r="M62" t="s">
+        <v>60</v>
+      </c>
+      <c r="O62" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>271</v>
+      </c>
+      <c r="B63" t="s">
+        <v>322</v>
+      </c>
+      <c r="C63" t="s">
+        <v>273</v>
+      </c>
+      <c r="D63" t="s">
+        <v>274</v>
+      </c>
+      <c r="E63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" t="s">
+        <v>267</v>
+      </c>
+      <c r="G63" t="s">
+        <v>323</v>
+      </c>
+      <c r="H63" t="s">
+        <v>324</v>
+      </c>
+      <c r="J63" t="s">
+        <v>276</v>
+      </c>
+      <c r="K63" t="s">
+        <v>277</v>
+      </c>
+      <c r="L63" t="s">
+        <v>98</v>
+      </c>
+      <c r="M63" t="s">
+        <v>60</v>
+      </c>
+      <c r="O63" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>325</v>
+      </c>
+      <c r="B64" t="s">
+        <v>326</v>
+      </c>
+      <c r="C64" t="s">
+        <v>327</v>
+      </c>
+      <c r="D64" t="s">
+        <v>328</v>
+      </c>
+      <c r="E64" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" t="s">
+        <v>267</v>
+      </c>
+      <c r="J64" t="s">
+        <v>329</v>
+      </c>
+      <c r="K64" t="s">
+        <v>277</v>
+      </c>
+      <c r="L64" t="s">
+        <v>98</v>
+      </c>
+      <c r="M64" t="s">
+        <v>60</v>
+      </c>
+      <c r="O64" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>330</v>
+      </c>
+      <c r="B65" t="s">
+        <v>331</v>
+      </c>
+      <c r="C65" t="s">
+        <v>332</v>
+      </c>
+      <c r="D65" t="s">
+        <v>333</v>
+      </c>
+      <c r="E65" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" t="s">
+        <v>267</v>
+      </c>
+      <c r="G65" t="s">
+        <v>334</v>
+      </c>
+      <c r="H65" t="s">
+        <v>335</v>
+      </c>
+      <c r="I65">
+        <f>82-31-5182-8588</f>
+        <v>-13719</v>
+      </c>
+      <c r="K65" t="s">
+        <v>284</v>
+      </c>
+      <c r="L65" t="s">
+        <v>33</v>
+      </c>
+      <c r="M65" t="s">
+        <v>60</v>
+      </c>
+      <c r="O65" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>336</v>
+      </c>
+      <c r="B66" t="s">
+        <v>337</v>
+      </c>
+      <c r="C66" t="s">
+        <v>338</v>
+      </c>
+      <c r="D66" t="s">
+        <v>339</v>
+      </c>
+      <c r="E66" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" t="s">
+        <v>267</v>
+      </c>
+      <c r="G66" t="s">
+        <v>340</v>
+      </c>
+      <c r="H66" t="s">
+        <v>50</v>
+      </c>
+      <c r="I66">
+        <f>82-2-2088-4991</f>
+        <v>-6999</v>
+      </c>
+      <c r="K66" t="s">
+        <v>284</v>
+      </c>
+      <c r="L66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M66" t="s">
+        <v>60</v>
+      </c>
+      <c r="O66" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>341</v>
+      </c>
+      <c r="B67" t="s">
+        <v>342</v>
+      </c>
+      <c r="C67" t="s">
+        <v>343</v>
+      </c>
+      <c r="D67" t="s">
+        <v>344</v>
+      </c>
+      <c r="E67" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" t="s">
+        <v>267</v>
+      </c>
+      <c r="G67" t="s">
+        <v>345</v>
+      </c>
+      <c r="H67" t="s">
+        <v>346</v>
+      </c>
+      <c r="I67" t="s">
+        <v>347</v>
+      </c>
+      <c r="J67" t="s">
+        <v>348</v>
+      </c>
+      <c r="K67" t="s">
+        <v>284</v>
+      </c>
+      <c r="L67" t="s">
+        <v>33</v>
+      </c>
+      <c r="M67" t="s">
+        <v>349</v>
+      </c>
+      <c r="O67" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>341</v>
+      </c>
+      <c r="B68" t="s">
+        <v>350</v>
+      </c>
+      <c r="C68" t="s">
+        <v>343</v>
+      </c>
+      <c r="D68" t="s">
+        <v>344</v>
+      </c>
+      <c r="E68" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" t="s">
+        <v>267</v>
+      </c>
+      <c r="G68" t="s">
+        <v>351</v>
+      </c>
+      <c r="H68" t="s">
+        <v>352</v>
+      </c>
+      <c r="I68" t="s">
+        <v>347</v>
+      </c>
+      <c r="K68" t="s">
+        <v>284</v>
+      </c>
+      <c r="L68" t="s">
+        <v>33</v>
+      </c>
+      <c r="M68" t="s">
+        <v>349</v>
+      </c>
+      <c r="O68" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>353</v>
+      </c>
+      <c r="B69" t="s">
+        <v>354</v>
+      </c>
+      <c r="C69" t="s">
+        <v>355</v>
+      </c>
+      <c r="D69" t="s">
+        <v>356</v>
+      </c>
+      <c r="E69" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" t="s">
+        <v>267</v>
+      </c>
+      <c r="G69" t="s">
+        <v>357</v>
+      </c>
+      <c r="H69" t="s">
+        <v>75</v>
+      </c>
+      <c r="J69" t="s">
+        <v>358</v>
+      </c>
+      <c r="K69" t="s">
+        <v>359</v>
+      </c>
+      <c r="L69" t="s">
+        <v>98</v>
+      </c>
+      <c r="M69" t="s">
+        <v>60</v>
+      </c>
+      <c r="O69" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>360</v>
+      </c>
+      <c r="B70" t="s">
+        <v>361</v>
+      </c>
+      <c r="C70" t="s">
+        <v>362</v>
+      </c>
+      <c r="D70" t="s">
+        <v>363</v>
+      </c>
+      <c r="E70" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" t="s">
+        <v>267</v>
+      </c>
+      <c r="G70" t="s">
+        <v>364</v>
+      </c>
+      <c r="H70" t="s">
+        <v>365</v>
+      </c>
+      <c r="I70" t="s">
+        <v>366</v>
+      </c>
+      <c r="K70" t="s">
+        <v>367</v>
+      </c>
+      <c r="L70" t="s">
+        <v>98</v>
+      </c>
+      <c r="M70" t="s">
+        <v>60</v>
+      </c>
+      <c r="O70" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>368</v>
+      </c>
+      <c r="B71" t="s">
+        <v>369</v>
+      </c>
+      <c r="C71" t="s">
+        <v>370</v>
+      </c>
+      <c r="D71" t="s">
+        <v>328</v>
+      </c>
+      <c r="E71" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" t="s">
+        <v>267</v>
+      </c>
+      <c r="I71" t="s">
+        <v>371</v>
+      </c>
+      <c r="K71" t="s">
+        <v>367</v>
+      </c>
+      <c r="L71" t="s">
+        <v>98</v>
+      </c>
+      <c r="M71" t="s">
+        <v>60</v>
+      </c>
+      <c r="O71" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>372</v>
+      </c>
+      <c r="B72" t="s">
+        <v>373</v>
+      </c>
+      <c r="C72" t="s">
+        <v>374</v>
+      </c>
+      <c r="D72" t="s">
+        <v>356</v>
+      </c>
+      <c r="E72" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" t="s">
+        <v>267</v>
+      </c>
+      <c r="G72" t="s">
+        <v>375</v>
+      </c>
+      <c r="H72" t="s">
+        <v>376</v>
+      </c>
+      <c r="I72" t="s">
+        <v>377</v>
+      </c>
+      <c r="K72" t="s">
+        <v>284</v>
+      </c>
+      <c r="L72" t="s">
+        <v>33</v>
+      </c>
+      <c r="M72" t="s">
+        <v>60</v>
+      </c>
+      <c r="O72" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>288</v>
+      </c>
+      <c r="B73" t="s">
+        <v>378</v>
+      </c>
+      <c r="C73" t="s">
+        <v>290</v>
+      </c>
+      <c r="D73" t="s">
+        <v>291</v>
+      </c>
+      <c r="E73" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" t="s">
+        <v>267</v>
+      </c>
+      <c r="G73" t="s">
+        <v>292</v>
+      </c>
+      <c r="H73" t="s">
+        <v>108</v>
+      </c>
+      <c r="J73" t="s">
+        <v>379</v>
+      </c>
+      <c r="K73" t="s">
+        <v>82</v>
+      </c>
+      <c r="L73" t="s">
+        <v>33</v>
+      </c>
+      <c r="M73" t="s">
+        <v>60</v>
+      </c>
+      <c r="O73" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>288</v>
+      </c>
+      <c r="B74" t="s">
+        <v>380</v>
+      </c>
+      <c r="C74" t="s">
+        <v>290</v>
+      </c>
+      <c r="D74" t="s">
+        <v>291</v>
+      </c>
+      <c r="E74" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" t="s">
+        <v>267</v>
+      </c>
+      <c r="G74" t="s">
+        <v>381</v>
+      </c>
+      <c r="H74" t="s">
+        <v>382</v>
+      </c>
+      <c r="J74" t="s">
+        <v>383</v>
+      </c>
+      <c r="K74" t="s">
+        <v>82</v>
+      </c>
+      <c r="L74" t="s">
+        <v>33</v>
+      </c>
+      <c r="M74" t="s">
+        <v>60</v>
+      </c>
+      <c r="O74" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>384</v>
+      </c>
+      <c r="B75" t="s">
+        <v>385</v>
+      </c>
+      <c r="C75" t="s">
+        <v>386</v>
+      </c>
+      <c r="D75" t="s">
+        <v>356</v>
+      </c>
+      <c r="E75" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" t="s">
+        <v>267</v>
+      </c>
+      <c r="G75" t="s">
+        <v>387</v>
+      </c>
+      <c r="H75" t="s">
+        <v>388</v>
+      </c>
+      <c r="I75">
+        <f>82-2-539-3450</f>
+        <v>-3909</v>
+      </c>
+      <c r="K75" t="s">
+        <v>59</v>
+      </c>
+      <c r="L75" t="s">
+        <v>33</v>
+      </c>
+      <c r="M75" t="s">
+        <v>60</v>
+      </c>
+      <c r="O75" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>389</v>
+      </c>
+      <c r="B76" t="s">
+        <v>390</v>
+      </c>
+      <c r="C76" t="s">
+        <v>391</v>
+      </c>
+      <c r="D76" t="s">
+        <v>392</v>
+      </c>
+      <c r="E76" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" t="s">
+        <v>267</v>
+      </c>
+      <c r="G76" t="s">
+        <v>393</v>
+      </c>
+      <c r="H76" t="s">
+        <v>50</v>
+      </c>
+      <c r="I76" t="s">
+        <v>394</v>
+      </c>
+      <c r="K76" t="s">
+        <v>132</v>
+      </c>
+      <c r="L76" t="s">
+        <v>133</v>
+      </c>
+      <c r="O76" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>395</v>
+      </c>
+      <c r="B77" t="s">
+        <v>396</v>
+      </c>
+      <c r="C77" t="s">
+        <v>397</v>
+      </c>
+      <c r="D77" t="s">
+        <v>398</v>
+      </c>
+      <c r="E77" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" t="s">
+        <v>267</v>
+      </c>
+      <c r="G77" t="s">
+        <v>399</v>
+      </c>
+      <c r="H77" t="s">
+        <v>400</v>
+      </c>
+      <c r="I77" t="s">
+        <v>401</v>
+      </c>
+      <c r="K77" t="s">
+        <v>402</v>
+      </c>
+      <c r="L77" t="s">
+        <v>403</v>
+      </c>
+      <c r="M77" t="s">
+        <v>60</v>
+      </c>
+      <c r="O77" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>404</v>
+      </c>
+      <c r="B78" t="s">
+        <v>405</v>
+      </c>
+      <c r="C78" t="s">
+        <v>406</v>
+      </c>
+      <c r="D78" t="s">
+        <v>407</v>
+      </c>
+      <c r="E78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" t="s">
+        <v>267</v>
+      </c>
+      <c r="G78" t="s">
+        <v>408</v>
+      </c>
+      <c r="I78">
+        <f>82-2-2659-2257</f>
+        <v>-4836</v>
+      </c>
+      <c r="J78" t="s">
+        <v>409</v>
+      </c>
+      <c r="K78" t="s">
+        <v>59</v>
+      </c>
+      <c r="L78" t="s">
+        <v>33</v>
+      </c>
+      <c r="M78" t="s">
+        <v>60</v>
+      </c>
+      <c r="O78" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>410</v>
+      </c>
+      <c r="B79" t="s">
+        <v>411</v>
+      </c>
+      <c r="C79" t="s">
+        <v>412</v>
+      </c>
+      <c r="D79" t="s">
+        <v>413</v>
+      </c>
+      <c r="E79" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" t="s">
+        <v>267</v>
+      </c>
+      <c r="G79" t="s">
+        <v>414</v>
+      </c>
+      <c r="H79" t="s">
+        <v>415</v>
+      </c>
+      <c r="I79" t="s">
+        <v>416</v>
+      </c>
+      <c r="K79" t="s">
+        <v>359</v>
+      </c>
+      <c r="L79" t="s">
+        <v>98</v>
+      </c>
+      <c r="M79" t="s">
+        <v>60</v>
+      </c>
+      <c r="O79" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>410</v>
+      </c>
+      <c r="B80" t="s">
+        <v>417</v>
+      </c>
+      <c r="C80" t="s">
+        <v>412</v>
+      </c>
+      <c r="D80" t="s">
+        <v>413</v>
+      </c>
+      <c r="E80" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" t="s">
+        <v>267</v>
+      </c>
+      <c r="G80" t="s">
+        <v>414</v>
+      </c>
+      <c r="H80" t="s">
+        <v>415</v>
+      </c>
+      <c r="I80" t="s">
+        <v>416</v>
+      </c>
+      <c r="K80" t="s">
+        <v>359</v>
+      </c>
+      <c r="L80" t="s">
+        <v>98</v>
+      </c>
+      <c r="M80" t="s">
+        <v>60</v>
+      </c>
+      <c r="O80" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>410</v>
+      </c>
+      <c r="B81" t="s">
+        <v>418</v>
+      </c>
+      <c r="C81" t="s">
+        <v>412</v>
+      </c>
+      <c r="D81" t="s">
+        <v>413</v>
+      </c>
+      <c r="E81" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81" t="s">
+        <v>267</v>
+      </c>
+      <c r="G81" t="s">
+        <v>419</v>
+      </c>
+      <c r="H81" t="s">
+        <v>75</v>
+      </c>
+      <c r="I81" t="s">
+        <v>416</v>
+      </c>
+      <c r="K81" t="s">
+        <v>359</v>
+      </c>
+      <c r="L81" t="s">
+        <v>98</v>
+      </c>
+      <c r="M81" t="s">
+        <v>60</v>
+      </c>
+      <c r="O81" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>420</v>
+      </c>
+      <c r="B82" t="s">
+        <v>421</v>
+      </c>
+      <c r="C82" t="s">
+        <v>422</v>
+      </c>
+      <c r="D82" t="s">
+        <v>423</v>
+      </c>
+      <c r="E82" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" t="s">
+        <v>267</v>
+      </c>
+      <c r="G82" t="s">
+        <v>424</v>
+      </c>
+      <c r="H82" t="s">
+        <v>425</v>
+      </c>
+      <c r="I82" t="s">
+        <v>426</v>
+      </c>
+      <c r="K82" t="s">
+        <v>359</v>
+      </c>
+      <c r="L82" t="s">
+        <v>98</v>
+      </c>
+      <c r="M82" t="s">
+        <v>60</v>
+      </c>
+      <c r="O82" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>372</v>
+      </c>
+      <c r="B83" t="s">
+        <v>427</v>
+      </c>
+      <c r="C83" t="s">
+        <v>374</v>
+      </c>
+      <c r="D83" t="s">
+        <v>356</v>
+      </c>
+      <c r="E83" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" t="s">
+        <v>267</v>
+      </c>
+      <c r="G83" t="s">
+        <v>428</v>
+      </c>
+      <c r="H83" t="s">
+        <v>50</v>
+      </c>
+      <c r="I83" t="s">
+        <v>377</v>
+      </c>
+      <c r="K83" t="s">
+        <v>284</v>
+      </c>
+      <c r="L83" t="s">
+        <v>33</v>
+      </c>
+      <c r="M83" t="s">
+        <v>60</v>
+      </c>
+      <c r="O83" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>271</v>
+      </c>
+      <c r="B84" t="s">
+        <v>429</v>
+      </c>
+      <c r="C84" t="s">
+        <v>273</v>
+      </c>
+      <c r="D84" t="s">
+        <v>274</v>
+      </c>
+      <c r="E84" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84" t="s">
+        <v>267</v>
+      </c>
+      <c r="G84" t="s">
+        <v>320</v>
+      </c>
+      <c r="H84" t="s">
+        <v>321</v>
+      </c>
+      <c r="J84" t="s">
+        <v>276</v>
+      </c>
+      <c r="K84" t="s">
+        <v>277</v>
+      </c>
+      <c r="L84" t="s">
+        <v>98</v>
+      </c>
+      <c r="M84" t="s">
+        <v>60</v>
+      </c>
+      <c r="O84" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>278</v>
+      </c>
+      <c r="B85" t="s">
+        <v>430</v>
+      </c>
+      <c r="C85" t="s">
+        <v>280</v>
+      </c>
+      <c r="D85" t="s">
+        <v>281</v>
+      </c>
+      <c r="E85" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85" t="s">
+        <v>267</v>
+      </c>
+      <c r="G85" t="s">
+        <v>431</v>
+      </c>
+      <c r="I85" t="s">
+        <v>283</v>
+      </c>
+      <c r="J85">
+        <f>82-10-6361-5903</f>
+        <v>-12192</v>
+      </c>
+      <c r="K85" t="s">
+        <v>284</v>
+      </c>
+      <c r="L85" t="s">
+        <v>33</v>
+      </c>
+      <c r="M85" t="s">
+        <v>60</v>
+      </c>
+      <c r="O85" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>263</v>
+      </c>
+      <c r="B86" t="s">
+        <v>432</v>
+      </c>
+      <c r="C86" t="s">
+        <v>265</v>
+      </c>
+      <c r="D86" t="s">
+        <v>266</v>
+      </c>
+      <c r="E86" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86" t="s">
+        <v>267</v>
+      </c>
+      <c r="G86" t="s">
+        <v>268</v>
+      </c>
+      <c r="H86" t="s">
+        <v>269</v>
+      </c>
+      <c r="I86">
+        <f>886-2-22989578</f>
+        <v>-22988694</v>
+      </c>
+      <c r="K86" t="s">
+        <v>270</v>
+      </c>
+      <c r="L86" t="s">
+        <v>33</v>
+      </c>
+      <c r="M86" t="s">
+        <v>60</v>
+      </c>
+      <c r="O86" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>433</v>
+      </c>
+      <c r="B87" t="s">
+        <v>434</v>
+      </c>
+      <c r="C87" t="s">
+        <v>435</v>
+      </c>
+      <c r="D87" t="s">
+        <v>436</v>
+      </c>
+      <c r="E87" t="s">
+        <v>20</v>
+      </c>
+      <c r="F87" t="s">
+        <v>267</v>
+      </c>
+      <c r="G87" t="s">
+        <v>437</v>
+      </c>
+      <c r="H87" t="s">
+        <v>75</v>
+      </c>
+      <c r="I87" t="s">
+        <v>438</v>
+      </c>
+      <c r="K87" t="s">
+        <v>359</v>
+      </c>
+      <c r="L87" t="s">
+        <v>98</v>
+      </c>
+      <c r="M87" t="s">
+        <v>60</v>
+      </c>
+      <c r="O87" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>330</v>
+      </c>
+      <c r="B88" t="s">
+        <v>439</v>
+      </c>
+      <c r="C88" t="s">
+        <v>332</v>
+      </c>
+      <c r="D88" t="s">
+        <v>333</v>
+      </c>
+      <c r="E88" t="s">
+        <v>20</v>
+      </c>
+      <c r="F88" t="s">
+        <v>267</v>
+      </c>
+      <c r="G88" t="s">
+        <v>334</v>
+      </c>
+      <c r="H88" t="s">
+        <v>335</v>
+      </c>
+      <c r="I88">
+        <f>82-31-5182-8588</f>
+        <v>-13719</v>
+      </c>
+      <c r="K88" t="s">
+        <v>284</v>
+      </c>
+      <c r="L88" t="s">
+        <v>33</v>
+      </c>
+      <c r="M88" t="s">
+        <v>60</v>
+      </c>
+      <c r="O88" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>341</v>
+      </c>
+      <c r="B89" t="s">
+        <v>440</v>
+      </c>
+      <c r="C89" t="s">
+        <v>343</v>
+      </c>
+      <c r="D89" t="s">
+        <v>344</v>
+      </c>
+      <c r="E89" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89" t="s">
+        <v>267</v>
+      </c>
+      <c r="G89" t="s">
+        <v>441</v>
+      </c>
+      <c r="H89" t="s">
+        <v>442</v>
+      </c>
+      <c r="I89" t="s">
+        <v>347</v>
+      </c>
+      <c r="J89" t="s">
+        <v>443</v>
+      </c>
+      <c r="K89" t="s">
+        <v>284</v>
+      </c>
+      <c r="L89" t="s">
+        <v>33</v>
+      </c>
+      <c r="M89" t="s">
+        <v>349</v>
+      </c>
+      <c r="O89" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>395</v>
+      </c>
+      <c r="B90" t="s">
+        <v>444</v>
+      </c>
+      <c r="C90" t="s">
+        <v>397</v>
+      </c>
+      <c r="D90" t="s">
+        <v>398</v>
+      </c>
+      <c r="E90" t="s">
+        <v>20</v>
+      </c>
+      <c r="F90" t="s">
+        <v>267</v>
+      </c>
+      <c r="G90" t="s">
+        <v>445</v>
+      </c>
+      <c r="H90" t="s">
+        <v>446</v>
+      </c>
+      <c r="I90" t="s">
+        <v>401</v>
+      </c>
+      <c r="K90" t="s">
+        <v>402</v>
+      </c>
+      <c r="L90" t="s">
+        <v>403</v>
+      </c>
+      <c r="M90" t="s">
+        <v>60</v>
+      </c>
+      <c r="O90" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>410</v>
+      </c>
+      <c r="B91" t="s">
+        <v>447</v>
+      </c>
+      <c r="C91" t="s">
+        <v>412</v>
+      </c>
+      <c r="D91" t="s">
+        <v>413</v>
+      </c>
+      <c r="E91" t="s">
+        <v>20</v>
+      </c>
+      <c r="F91" t="s">
+        <v>267</v>
+      </c>
+      <c r="G91" t="s">
+        <v>448</v>
+      </c>
+      <c r="H91" t="s">
+        <v>449</v>
+      </c>
+      <c r="I91" t="s">
+        <v>416</v>
+      </c>
+      <c r="K91" t="s">
+        <v>359</v>
+      </c>
+      <c r="L91" t="s">
+        <v>98</v>
+      </c>
+      <c r="M91" t="s">
+        <v>60</v>
+      </c>
+      <c r="O91" s="1">
+        <v>45341.540543981479</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>450</v>
+      </c>
+      <c r="B92" t="s">
+        <v>451</v>
+      </c>
+      <c r="C92" t="s">
+        <v>452</v>
+      </c>
+      <c r="D92" t="s">
+        <v>453</v>
+      </c>
+      <c r="E92" t="s">
+        <v>20</v>
+      </c>
+      <c r="F92" t="s">
+        <v>454</v>
+      </c>
+      <c r="G92" t="s">
+        <v>455</v>
+      </c>
+      <c r="H92" t="s">
+        <v>456</v>
+      </c>
+      <c r="I92" t="s">
+        <v>457</v>
+      </c>
+      <c r="J92" t="s">
+        <v>458</v>
+      </c>
+      <c r="K92" t="s">
+        <v>25</v>
+      </c>
+      <c r="L92" t="s">
+        <v>26</v>
+      </c>
+      <c r="N92" t="s">
+        <v>25</v>
+      </c>
+      <c r="O92" s="1">
+        <v>45341.413032407407</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>459</v>
+      </c>
+      <c r="B93" t="s">
+        <v>460</v>
+      </c>
+      <c r="C93" t="s">
+        <v>461</v>
+      </c>
+      <c r="D93" t="s">
+        <v>462</v>
+      </c>
+      <c r="E93" t="s">
+        <v>20</v>
+      </c>
+      <c r="F93" t="s">
+        <v>454</v>
+      </c>
+      <c r="G93" t="s">
+        <v>463</v>
+      </c>
+      <c r="I93" t="s">
+        <v>464</v>
+      </c>
+      <c r="K93" t="s">
+        <v>132</v>
+      </c>
+      <c r="L93" t="s">
+        <v>133</v>
+      </c>
+      <c r="O93" s="1">
+        <v>45341.413032407407</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
     </row>
-    <row r="95" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
     </row>
-    <row r="96" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
     </row>
